--- a/biology/Botanique/Wislizenia_refracta/Wislizenia_refracta.xlsx
+++ b/biology/Botanique/Wislizenia_refracta/Wislizenia_refracta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wislizenia refracta est une espèce de plantes à fleurs de la famille des Capparaceae selon la classification classique, et des Cleomaceae selon la classification phylogénétique. Elle est originaire du Mexique et du sud-ouest des États-Unis.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante souvent fortement ramifiée mesure entre 40 et 70 cm de hauteur[1]. Les feuilles sont imparipennées, trifoliées. Les trois folioles sont elliptiques et mesurent entre 1 et 3 cm de longueur[1].
-Appareil reproducteur
-La floraison a lieu entre avril et septembre.
-L'inflorescence est une grappe dense de minuscules fleurs jaunes. Chaque fleur possède 4 pétales d'environ 3 mm de longueur et 6 étamines[1].
-Le fruit est une capsule d'environ 3 mm de longueur, formée de deux lobes arrondis accolés au milieu desquels s'élève le style, qui est marcescent[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante souvent fortement ramifiée mesure entre 40 et 70 cm de hauteur. Les feuilles sont imparipennées, trifoliées. Les trois folioles sont elliptiques et mesurent entre 1 et 3 cm de longueur.
 </t>
         </is>
       </c>
@@ -544,12 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wislizenia refracta pousse sur sol sableux ou alcalin, dans les déserts et plaines arides de faible altitude du Mexique et du sud-ouest américain. Elle est souvent située dans des zones dégagées telles que le lit à sec des ruisseaux temporaires ou sur le bord des routes. Son aire de répartition s'étend de la Californie au Texas, et vers le sud jusqu'au Mexique.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre avril et septembre.
+L'inflorescence est une grappe dense de minuscules fleurs jaunes. Chaque fleur possède 4 pétales d'environ 3 mm de longueur et 6 étamines.
+Le fruit est une capsule d'environ 3 mm de longueur, formée de deux lobes arrondis accolés au milieu desquels s'élève le style, qui est marcescent.
 </t>
         </is>
       </c>
@@ -575,12 +596,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wislizenia refracta pousse sur sol sableux ou alcalin, dans les déserts et plaines arides de faible altitude du Mexique et du sud-ouest américain. Elle est souvent située dans des zones dégagées telles que le lit à sec des ruisseaux temporaires ou sur le bord des routes. Son aire de répartition s'étend de la Californie au Texas, et vers le sud jusqu'au Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wislizenia_refracta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wislizenia_refracta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Rôle écologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malodorante et toxique pour le bétail, cette plante n'est guère consommée par les animaux[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malodorante et toxique pour le bétail, cette plante n'est guère consommée par les animaux.
 </t>
         </is>
       </c>
